--- a/ControleOcorrencias.xlsx
+++ b/ControleOcorrencias.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Desktop\PEI IRENE DIAS - 2025\Ocorrencias_IDR_projeto Versão Estavel sem Relatório\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Desktop\PEI IRENE DIAS - 2025\Ocorrencias_IDR_projeto - Copia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB4A9A3-16BD-4CBA-99C0-5869D789DA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2F14C17-7D9A-4CAF-9B95-D351A5FC2726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" activeTab="2" xr2:uid="{A0247835-2399-440C-976B-BB08C259A88C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{A0247835-2399-440C-976B-BB08C259A88C}"/>
   </bookViews>
   <sheets>
     <sheet name="Professores" sheetId="4" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Alunos!$A$1:$C$582</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="641">
   <si>
     <t>Professor</t>
   </si>
@@ -392,9 +393,6 @@
     <t>GABRIELA MAIARA PEREIRA DOS SANTOS</t>
   </si>
   <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
     <t>GUSTAVO REUEL SILVA REIS</t>
   </si>
   <si>
@@ -485,9 +483,6 @@
     <t>YASMIN VICTORIA DOS SANTOS MOROTI</t>
   </si>
   <si>
-    <t>Daniela</t>
-  </si>
-  <si>
     <t>Muriel Henrique Maciel Guimarães</t>
   </si>
   <si>
@@ -594,9 +589,6 @@
   </si>
   <si>
     <t>RAFAEL PEREIRA DA COSTA SILVA</t>
-  </si>
-  <si>
-    <t>Marcos Bortolossi</t>
   </si>
   <si>
     <t>RAPHAELLA JASMINY DA SILVA</t>
@@ -2466,8 +2458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC10081-59C7-4874-8328-FFDA05FBC7C8}">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A33"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2492,17 +2484,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
@@ -2522,17 +2514,17 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
@@ -2542,27 +2534,27 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -2572,17 +2564,17 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -2592,7 +2584,7 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
@@ -2602,7 +2594,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
@@ -2617,7 +2609,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -2637,12 +2629,12 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -2732,7 +2724,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
@@ -2770,7 +2762,7 @@
   <dimension ref="A1:C582"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2783,7 +2775,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -2797,7 +2789,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>74</v>
@@ -2808,7 +2800,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>96</v>
@@ -2819,7 +2811,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>108</v>
@@ -2830,7 +2822,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>108</v>
@@ -2841,7 +2833,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>106</v>
@@ -2852,10 +2844,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2863,10 +2855,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -2874,10 +2866,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -2885,10 +2877,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -2896,10 +2888,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -2907,7 +2899,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>108</v>
@@ -2918,7 +2910,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>74</v>
@@ -2929,10 +2921,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -2940,7 +2932,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C15" s="2"/>
     </row>
@@ -2949,10 +2941,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -2960,10 +2952,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -2971,7 +2963,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>108</v>
@@ -2982,7 +2974,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>87</v>
@@ -2993,10 +2985,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -3004,7 +2996,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>83</v>
@@ -3015,10 +3007,10 @@
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -3026,10 +3018,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -3037,10 +3029,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -3048,10 +3040,10 @@
         <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -3059,7 +3051,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>70</v>
@@ -3070,7 +3062,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C27" s="2"/>
     </row>
@@ -3079,7 +3071,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>70</v>
@@ -3090,10 +3082,10 @@
         <v>8</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -3101,10 +3093,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -3112,7 +3104,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>106</v>
@@ -3123,7 +3115,7 @@
         <v>8</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>108</v>
@@ -3134,10 +3126,10 @@
         <v>8</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -3145,7 +3137,7 @@
         <v>8</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>70</v>
@@ -3156,10 +3148,10 @@
         <v>8</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -3167,7 +3159,7 @@
         <v>8</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C36" s="2"/>
     </row>
@@ -3176,7 +3168,7 @@
         <v>8</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>74</v>
@@ -3184,32 +3176,32 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>83</v>
@@ -3217,10 +3209,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>83</v>
@@ -3228,32 +3220,32 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>496</v>
-      </c>
       <c r="C42" s="4" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>83</v>
@@ -3261,54 +3253,54 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>51</v>
@@ -3316,21 +3308,21 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>78</v>
@@ -3338,32 +3330,32 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>108</v>
@@ -3371,10 +3363,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>83</v>
@@ -3382,153 +3374,153 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>99</v>
@@ -3536,10 +3528,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>99</v>
@@ -3547,10 +3539,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>64</v>
@@ -3558,13 +3550,13 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -3572,10 +3564,10 @@
         <v>13</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -3583,7 +3575,7 @@
         <v>13</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C74" s="2"/>
     </row>
@@ -3592,10 +3584,10 @@
         <v>13</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -3603,7 +3595,7 @@
         <v>13</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C76" s="2"/>
     </row>
@@ -3612,10 +3604,10 @@
         <v>13</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -3623,10 +3615,10 @@
         <v>13</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -3634,10 +3626,10 @@
         <v>13</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -3645,10 +3637,10 @@
         <v>13</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -3656,7 +3648,7 @@
         <v>13</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C81" s="4"/>
     </row>
@@ -3665,10 +3657,10 @@
         <v>13</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -3676,7 +3668,7 @@
         <v>13</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>87</v>
@@ -3687,7 +3679,7 @@
         <v>13</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>83</v>
@@ -3698,10 +3690,10 @@
         <v>13</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -3709,10 +3701,10 @@
         <v>13</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -3720,7 +3712,7 @@
         <v>13</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>83</v>
@@ -3731,7 +3723,7 @@
         <v>13</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C88" s="2"/>
     </row>
@@ -3740,10 +3732,10 @@
         <v>13</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -3751,10 +3743,10 @@
         <v>13</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -3762,10 +3754,10 @@
         <v>13</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -3773,10 +3765,10 @@
         <v>13</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -3784,10 +3776,10 @@
         <v>13</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -3795,10 +3787,10 @@
         <v>13</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -3806,10 +3798,10 @@
         <v>13</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -3817,7 +3809,7 @@
         <v>13</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>87</v>
@@ -3828,7 +3820,7 @@
         <v>13</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>108</v>
@@ -3839,10 +3831,10 @@
         <v>13</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -3850,21 +3842,19 @@
         <v>13</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>147</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="C99" s="4"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -3872,10 +3862,10 @@
         <v>9</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -3883,10 +3873,10 @@
         <v>9</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -3894,10 +3884,10 @@
         <v>9</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -3905,10 +3895,10 @@
         <v>9</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -3916,10 +3906,10 @@
         <v>9</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -3927,10 +3917,10 @@
         <v>9</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -3938,7 +3928,7 @@
         <v>9</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>74</v>
@@ -3949,7 +3939,7 @@
         <v>9</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>99</v>
@@ -3960,10 +3950,10 @@
         <v>9</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -3971,10 +3961,10 @@
         <v>9</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -3982,10 +3972,10 @@
         <v>9</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -3993,7 +3983,7 @@
         <v>9</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>81</v>
@@ -4004,10 +3994,10 @@
         <v>9</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -4015,10 +4005,10 @@
         <v>9</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -4026,10 +4016,10 @@
         <v>9</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -4037,7 +4027,7 @@
         <v>9</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>81</v>
@@ -4048,10 +4038,10 @@
         <v>9</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -4059,7 +4049,7 @@
         <v>9</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>81</v>
@@ -4070,10 +4060,10 @@
         <v>9</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -4081,10 +4071,10 @@
         <v>9</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -4092,10 +4082,10 @@
         <v>9</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -4103,10 +4093,10 @@
         <v>9</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -4114,10 +4104,10 @@
         <v>9</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -4125,10 +4115,10 @@
         <v>9</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -4136,10 +4126,10 @@
         <v>9</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -4147,10 +4137,10 @@
         <v>9</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -4158,10 +4148,10 @@
         <v>10</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -4169,10 +4159,10 @@
         <v>10</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -4180,7 +4170,7 @@
         <v>10</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>81</v>
@@ -4191,10 +4181,10 @@
         <v>10</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -4202,10 +4192,10 @@
         <v>10</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -4213,10 +4203,10 @@
         <v>10</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -4224,7 +4214,7 @@
         <v>10</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>54</v>
@@ -4235,10 +4225,10 @@
         <v>10</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -4246,10 +4236,10 @@
         <v>10</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -4257,10 +4247,10 @@
         <v>10</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -4268,10 +4258,10 @@
         <v>10</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -4279,7 +4269,7 @@
         <v>10</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>70</v>
@@ -4290,7 +4280,7 @@
         <v>10</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>54</v>
@@ -4301,10 +4291,10 @@
         <v>10</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -4312,10 +4302,10 @@
         <v>10</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -4323,10 +4313,10 @@
         <v>10</v>
       </c>
       <c r="B142" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C142" s="4" t="s">
         <v>599</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -4334,10 +4324,10 @@
         <v>10</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -4345,10 +4335,10 @@
         <v>10</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -4356,10 +4346,10 @@
         <v>10</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -4367,10 +4357,10 @@
         <v>10</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -4378,10 +4368,10 @@
         <v>10</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -4389,7 +4379,7 @@
         <v>10</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>81</v>
@@ -4400,7 +4390,7 @@
         <v>11</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>83</v>
@@ -4411,10 +4401,10 @@
         <v>11</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -4422,7 +4412,7 @@
         <v>11</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>83</v>
@@ -4433,10 +4423,10 @@
         <v>11</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -4444,10 +4434,10 @@
         <v>11</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -4455,10 +4445,10 @@
         <v>11</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -4466,10 +4456,10 @@
         <v>11</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -4477,7 +4467,7 @@
         <v>11</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>83</v>
@@ -4488,7 +4478,7 @@
         <v>11</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>74</v>
@@ -4499,10 +4489,10 @@
         <v>11</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -4510,10 +4500,10 @@
         <v>11</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -4521,10 +4511,10 @@
         <v>11</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -4532,10 +4522,10 @@
         <v>12</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -4543,10 +4533,10 @@
         <v>12</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -4554,10 +4544,10 @@
         <v>12</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -4565,10 +4555,10 @@
         <v>12</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -4576,10 +4566,10 @@
         <v>12</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -4587,10 +4577,10 @@
         <v>12</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -4598,10 +4588,10 @@
         <v>12</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -4609,10 +4599,10 @@
         <v>12</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -4620,10 +4610,10 @@
         <v>12</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -4631,10 +4621,10 @@
         <v>12</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -4642,7 +4632,7 @@
         <v>12</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>51</v>
@@ -4653,10 +4643,10 @@
         <v>12</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -4664,10 +4654,10 @@
         <v>12</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -4675,7 +4665,7 @@
         <v>12</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>74</v>
@@ -4686,10 +4676,10 @@
         <v>12</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -4697,10 +4687,10 @@
         <v>12</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -4708,10 +4698,10 @@
         <v>12</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -4722,7 +4712,7 @@
         <v>22</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -4733,7 +4723,7 @@
         <v>23</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -4766,7 +4756,7 @@
         <v>27</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -4777,7 +4767,7 @@
         <v>28</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -4821,7 +4811,7 @@
         <v>32</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -4832,7 +4822,7 @@
         <v>33</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -4865,7 +4855,7 @@
         <v>36</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -4876,7 +4866,7 @@
         <v>37</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -4887,7 +4877,7 @@
         <v>38</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -5039,7 +5029,7 @@
         <v>52</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -5072,7 +5062,7 @@
         <v>55</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
@@ -5083,7 +5073,7 @@
         <v>56</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -5094,7 +5084,7 @@
         <v>57</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -5127,7 +5117,7 @@
         <v>58</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -5226,7 +5216,7 @@
         <v>71</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
@@ -5501,7 +5491,7 @@
         <v>97</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -5534,7 +5524,7 @@
         <v>110</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
@@ -5545,7 +5535,7 @@
         <v>111</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -5556,7 +5546,7 @@
         <v>112</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -5567,7 +5557,7 @@
         <v>113</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -5578,7 +5568,7 @@
         <v>114</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -5588,19 +5578,17 @@
       <c r="B257" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C257" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="C257" s="2"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -5608,10 +5596,10 @@
         <v>6</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -5619,10 +5607,10 @@
         <v>6</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
@@ -5630,10 +5618,10 @@
         <v>6</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
@@ -5641,10 +5629,10 @@
         <v>6</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
@@ -5652,7 +5640,7 @@
         <v>6</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>54</v>
@@ -5663,10 +5651,10 @@
         <v>6</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
@@ -5674,10 +5662,10 @@
         <v>6</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
@@ -5685,10 +5673,10 @@
         <v>6</v>
       </c>
       <c r="B266" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C266" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="C266" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
@@ -5696,10 +5684,10 @@
         <v>6</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
@@ -5707,10 +5695,10 @@
         <v>6</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -5718,10 +5706,10 @@
         <v>6</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -5729,10 +5717,10 @@
         <v>6</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -5740,10 +5728,10 @@
         <v>6</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -5751,7 +5739,7 @@
         <v>6</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>74</v>
@@ -5762,10 +5750,10 @@
         <v>6</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
@@ -5773,10 +5761,10 @@
         <v>6</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
@@ -5784,10 +5772,10 @@
         <v>6</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
@@ -5795,10 +5783,10 @@
         <v>6</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
@@ -5806,7 +5794,7 @@
         <v>6</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>108</v>
@@ -5817,10 +5805,10 @@
         <v>6</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
@@ -5828,10 +5816,10 @@
         <v>6</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
@@ -5839,10 +5827,10 @@
         <v>6</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
@@ -5850,10 +5838,10 @@
         <v>6</v>
       </c>
       <c r="B281" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C281" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="C281" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
@@ -5861,10 +5849,10 @@
         <v>6</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
@@ -5872,10 +5860,10 @@
         <v>6</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
@@ -5883,10 +5871,10 @@
         <v>6</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
@@ -5894,10 +5882,10 @@
         <v>6</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
@@ -5905,10 +5893,10 @@
         <v>6</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
@@ -5916,10 +5904,10 @@
         <v>6</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
@@ -5927,10 +5915,10 @@
         <v>6</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
@@ -5938,10 +5926,10 @@
         <v>6</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
@@ -5949,29 +5937,25 @@
         <v>6</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C290" s="4" t="s">
-        <v>147</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C290" s="4"/>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C291" s="4" t="s">
-        <v>147</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C291" s="4"/>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>25</v>
@@ -5982,21 +5966,19 @@
         <v>7</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C293" s="4" t="s">
-        <v>147</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C293" s="4"/>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
@@ -6004,10 +5986,10 @@
         <v>7</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
@@ -6015,10 +5997,10 @@
         <v>7</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
@@ -6026,10 +6008,10 @@
         <v>7</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
@@ -6037,10 +6019,10 @@
         <v>7</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
@@ -6048,7 +6030,7 @@
         <v>7</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>106</v>
@@ -6059,7 +6041,7 @@
         <v>7</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>54</v>
@@ -6070,10 +6052,10 @@
         <v>7</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
@@ -6081,7 +6063,7 @@
         <v>7</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>54</v>
@@ -6092,7 +6074,7 @@
         <v>7</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>106</v>
@@ -6103,7 +6085,7 @@
         <v>7</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>25</v>
@@ -6114,10 +6096,10 @@
         <v>7</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
@@ -6125,10 +6107,10 @@
         <v>7</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
@@ -6136,10 +6118,10 @@
         <v>7</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
@@ -6147,7 +6129,7 @@
         <v>7</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>54</v>
@@ -6158,7 +6140,7 @@
         <v>7</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>25</v>
@@ -6169,7 +6151,7 @@
         <v>7</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C310" s="4"/>
     </row>
@@ -6178,7 +6160,7 @@
         <v>7</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C311" s="4"/>
     </row>
@@ -6187,10 +6169,10 @@
         <v>7</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
@@ -6198,10 +6180,10 @@
         <v>7</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
@@ -6209,7 +6191,7 @@
         <v>7</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>25</v>
@@ -6220,7 +6202,7 @@
         <v>7</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>81</v>
@@ -6231,7 +6213,7 @@
         <v>7</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>74</v>
@@ -6242,7 +6224,7 @@
         <v>7</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>54</v>
@@ -6253,7 +6235,7 @@
         <v>7</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C318" s="4"/>
     </row>
@@ -6262,7 +6244,7 @@
         <v>7</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>106</v>
@@ -6273,7 +6255,7 @@
         <v>7</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C320" s="2"/>
     </row>
@@ -6282,10 +6264,10 @@
         <v>7</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
@@ -6293,7 +6275,7 @@
         <v>7</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>25</v>
@@ -6304,10 +6286,10 @@
         <v>7</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
@@ -6315,29 +6297,25 @@
         <v>7</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C324" s="4" t="s">
-        <v>184</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="C324" s="4"/>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C325" s="4" t="s">
-        <v>184</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="C325" s="4"/>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>54</v>
@@ -6348,10 +6326,10 @@
         <v>7</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
@@ -6359,10 +6337,10 @@
         <v>7</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
@@ -6370,7 +6348,7 @@
         <v>7</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C329" s="4"/>
     </row>
@@ -6379,10 +6357,10 @@
         <v>7</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
@@ -6390,18 +6368,16 @@
         <v>14</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C331" s="2" t="s">
-        <v>116</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C331" s="2"/>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>74</v>
@@ -6412,10 +6388,10 @@
         <v>14</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
@@ -6423,7 +6399,7 @@
         <v>14</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>25</v>
@@ -6434,7 +6410,7 @@
         <v>14</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>106</v>
@@ -6445,10 +6421,10 @@
         <v>14</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
@@ -6456,7 +6432,7 @@
         <v>14</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>106</v>
@@ -6467,10 +6443,10 @@
         <v>14</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
@@ -6478,7 +6454,7 @@
         <v>14</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>78</v>
@@ -6489,7 +6465,7 @@
         <v>14</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>78</v>
@@ -6500,7 +6476,7 @@
         <v>14</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>74</v>
@@ -6511,10 +6487,10 @@
         <v>14</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
@@ -6522,7 +6498,7 @@
         <v>14</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>96</v>
@@ -6533,7 +6509,7 @@
         <v>14</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>78</v>
@@ -6544,7 +6520,7 @@
         <v>14</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>87</v>
@@ -6555,7 +6531,7 @@
         <v>14</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>78</v>
@@ -6566,7 +6542,7 @@
         <v>14</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>74</v>
@@ -6577,10 +6553,10 @@
         <v>14</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
@@ -6588,18 +6564,16 @@
         <v>14</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C349" s="4" t="s">
-        <v>147</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="C349" s="4"/>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>108</v>
@@ -6610,10 +6584,10 @@
         <v>14</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
@@ -6621,7 +6595,7 @@
         <v>14</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>96</v>
@@ -6632,10 +6606,10 @@
         <v>14</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
@@ -6643,10 +6617,10 @@
         <v>14</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
@@ -6654,7 +6628,7 @@
         <v>14</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>87</v>
@@ -6665,7 +6639,7 @@
         <v>14</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>78</v>
@@ -6676,10 +6650,10 @@
         <v>14</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
@@ -6687,7 +6661,7 @@
         <v>14</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>96</v>
@@ -6698,7 +6672,7 @@
         <v>14</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>87</v>
@@ -6709,7 +6683,7 @@
         <v>14</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>74</v>
@@ -6720,10 +6694,10 @@
         <v>14</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
@@ -6731,7 +6705,7 @@
         <v>14</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>74</v>
@@ -6742,10 +6716,10 @@
         <v>14</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
@@ -6753,7 +6727,7 @@
         <v>14</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>64</v>
@@ -6764,7 +6738,7 @@
         <v>14</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>96</v>
@@ -6775,7 +6749,7 @@
         <v>15</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>25</v>
@@ -6786,10 +6760,10 @@
         <v>15</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
@@ -6797,7 +6771,7 @@
         <v>15</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>78</v>
@@ -6808,7 +6782,7 @@
         <v>15</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>74</v>
@@ -6819,10 +6793,10 @@
         <v>15</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
@@ -6830,7 +6804,7 @@
         <v>15</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>106</v>
@@ -6841,7 +6815,7 @@
         <v>15</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>25</v>
@@ -6852,7 +6826,7 @@
         <v>15</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>74</v>
@@ -6863,10 +6837,10 @@
         <v>15</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
@@ -6874,10 +6848,10 @@
         <v>15</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
@@ -6885,7 +6859,7 @@
         <v>15</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>64</v>
@@ -6896,10 +6870,10 @@
         <v>15</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
@@ -6907,7 +6881,7 @@
         <v>15</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>74</v>
@@ -6918,10 +6892,10 @@
         <v>15</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
@@ -6929,10 +6903,10 @@
         <v>15</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
@@ -6940,10 +6914,10 @@
         <v>15</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
@@ -6951,7 +6925,7 @@
         <v>15</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>78</v>
@@ -6962,7 +6936,7 @@
         <v>15</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>96</v>
@@ -6973,10 +6947,10 @@
         <v>15</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
@@ -6984,10 +6958,10 @@
         <v>15</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
@@ -6995,10 +6969,10 @@
         <v>15</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
@@ -7006,10 +6980,10 @@
         <v>15</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
@@ -7017,10 +6991,10 @@
         <v>15</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
@@ -7028,10 +7002,10 @@
         <v>15</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
@@ -7039,10 +7013,10 @@
         <v>15</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
@@ -7050,7 +7024,7 @@
         <v>15</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>25</v>
@@ -7061,7 +7035,7 @@
         <v>15</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>64</v>
@@ -7072,7 +7046,7 @@
         <v>15</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>25</v>
@@ -7083,7 +7057,7 @@
         <v>15</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>25</v>
@@ -7094,7 +7068,7 @@
         <v>15</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>96</v>
@@ -7105,10 +7079,10 @@
         <v>15</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
@@ -7116,7 +7090,7 @@
         <v>15</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>70</v>
@@ -7127,7 +7101,7 @@
         <v>15</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>64</v>
@@ -7138,10 +7112,10 @@
         <v>15</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
@@ -7149,10 +7123,10 @@
         <v>15</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
@@ -7160,10 +7134,10 @@
         <v>15</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
@@ -7171,7 +7145,7 @@
         <v>15</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>74</v>
@@ -7182,10 +7156,10 @@
         <v>20</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
@@ -7193,21 +7167,19 @@
         <v>20</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C404" s="4" t="s">
-        <v>147</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="C404" s="4"/>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
@@ -7215,7 +7187,7 @@
         <v>20</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C406" s="2"/>
     </row>
@@ -7224,7 +7196,7 @@
         <v>20</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>106</v>
@@ -7235,7 +7207,7 @@
         <v>20</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>87</v>
@@ -7246,7 +7218,7 @@
         <v>20</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>78</v>
@@ -7257,7 +7229,7 @@
         <v>20</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>54</v>
@@ -7268,10 +7240,10 @@
         <v>20</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
@@ -7279,10 +7251,10 @@
         <v>20</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
@@ -7290,7 +7262,7 @@
         <v>20</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>99</v>
@@ -7301,7 +7273,7 @@
         <v>20</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>78</v>
@@ -7312,10 +7284,10 @@
         <v>20</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
@@ -7323,18 +7295,16 @@
         <v>20</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C416" s="4" t="s">
-        <v>116</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="C416" s="4"/>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>96</v>
@@ -7345,10 +7315,10 @@
         <v>20</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
@@ -7356,10 +7326,10 @@
         <v>20</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
@@ -7367,7 +7337,7 @@
         <v>20</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>87</v>
@@ -7378,10 +7348,10 @@
         <v>20</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
@@ -7389,10 +7359,10 @@
         <v>20</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
@@ -7400,10 +7370,10 @@
         <v>20</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
@@ -7411,10 +7381,10 @@
         <v>20</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
@@ -7422,10 +7392,10 @@
         <v>20</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
@@ -7433,10 +7403,10 @@
         <v>20</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
@@ -7444,10 +7414,10 @@
         <v>20</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
@@ -7455,10 +7425,10 @@
         <v>20</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
@@ -7466,7 +7436,7 @@
         <v>20</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>78</v>
@@ -7477,7 +7447,7 @@
         <v>20</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>54</v>
@@ -7488,10 +7458,10 @@
         <v>20</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
@@ -7499,7 +7469,7 @@
         <v>20</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>87</v>
@@ -7510,7 +7480,7 @@
         <v>20</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>78</v>
@@ -7521,7 +7491,7 @@
         <v>20</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>54</v>
@@ -7532,21 +7502,19 @@
         <v>20</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C435" s="4" t="s">
-        <v>116</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="C435" s="4"/>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
@@ -7554,7 +7522,7 @@
         <v>20</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>54</v>
@@ -7565,7 +7533,7 @@
         <v>21</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>96</v>
@@ -7576,7 +7544,7 @@
         <v>21</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>96</v>
@@ -7587,10 +7555,10 @@
         <v>21</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
@@ -7598,10 +7566,10 @@
         <v>21</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
@@ -7609,10 +7577,10 @@
         <v>21</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
@@ -7620,7 +7588,7 @@
         <v>21</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>99</v>
@@ -7631,10 +7599,10 @@
         <v>21</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
@@ -7642,10 +7610,10 @@
         <v>21</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
@@ -7653,10 +7621,10 @@
         <v>21</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
@@ -7664,7 +7632,7 @@
         <v>21</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>25</v>
@@ -7675,10 +7643,10 @@
         <v>21</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
@@ -7686,7 +7654,7 @@
         <v>21</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C449" s="4"/>
     </row>
@@ -7695,7 +7663,7 @@
         <v>21</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>74</v>
@@ -7706,7 +7674,7 @@
         <v>21</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>96</v>
@@ -7717,10 +7685,10 @@
         <v>21</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
@@ -7728,7 +7696,7 @@
         <v>21</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>99</v>
@@ -7739,10 +7707,10 @@
         <v>21</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
@@ -7750,10 +7718,10 @@
         <v>21</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
@@ -7761,18 +7729,16 @@
         <v>21</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C456" s="4" t="s">
-        <v>147</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="C456" s="4"/>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>108</v>
@@ -7783,10 +7749,10 @@
         <v>21</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
@@ -7794,7 +7760,7 @@
         <v>21</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>96</v>
@@ -7805,7 +7771,7 @@
         <v>21</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>99</v>
@@ -7816,7 +7782,7 @@
         <v>21</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>106</v>
@@ -7827,10 +7793,10 @@
         <v>21</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
@@ -7838,10 +7804,10 @@
         <v>21</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
@@ -7849,7 +7815,7 @@
         <v>21</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>81</v>
@@ -7860,7 +7826,7 @@
         <v>21</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>96</v>
@@ -7871,10 +7837,10 @@
         <v>21</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
@@ -7882,7 +7848,7 @@
         <v>21</v>
       </c>
       <c r="B467" s="10" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C467" s="11"/>
     </row>
@@ -7891,10 +7857,10 @@
         <v>21</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
@@ -7902,7 +7868,7 @@
         <v>21</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>70</v>
@@ -7913,10 +7879,10 @@
         <v>21</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
@@ -7924,10 +7890,10 @@
         <v>16</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
@@ -7935,10 +7901,10 @@
         <v>16</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
@@ -7946,10 +7912,10 @@
         <v>16</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
@@ -7957,10 +7923,10 @@
         <v>16</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
@@ -7968,7 +7934,7 @@
         <v>16</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>99</v>
@@ -7979,10 +7945,10 @@
         <v>16</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
@@ -7990,10 +7956,10 @@
         <v>16</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
@@ -8001,7 +7967,7 @@
         <v>16</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>70</v>
@@ -8012,7 +7978,7 @@
         <v>16</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>74</v>
@@ -8023,7 +7989,7 @@
         <v>16</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>78</v>
@@ -8034,7 +8000,7 @@
         <v>16</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>25</v>
@@ -8045,10 +8011,10 @@
         <v>16</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
@@ -8056,7 +8022,7 @@
         <v>16</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>99</v>
@@ -8067,10 +8033,10 @@
         <v>16</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
@@ -8078,10 +8044,10 @@
         <v>16</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
@@ -8089,7 +8055,7 @@
         <v>16</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>54</v>
@@ -8100,7 +8066,7 @@
         <v>16</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>25</v>
@@ -8111,7 +8077,7 @@
         <v>16</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>106</v>
@@ -8122,10 +8088,10 @@
         <v>16</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
@@ -8133,10 +8099,10 @@
         <v>16</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
@@ -8144,7 +8110,7 @@
         <v>16</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>54</v>
@@ -8155,7 +8121,7 @@
         <v>16</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>106</v>
@@ -8166,7 +8132,7 @@
         <v>16</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>74</v>
@@ -8177,10 +8143,10 @@
         <v>16</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
@@ -8188,7 +8154,7 @@
         <v>16</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>108</v>
@@ -8199,10 +8165,10 @@
         <v>16</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
@@ -8210,7 +8176,7 @@
         <v>16</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>74</v>
@@ -8221,7 +8187,7 @@
         <v>16</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C498" s="4"/>
     </row>
@@ -8230,7 +8196,7 @@
         <v>16</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>106</v>
@@ -8241,7 +8207,7 @@
         <v>16</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C500" s="4" t="s">
         <v>99</v>
@@ -8252,7 +8218,7 @@
         <v>16</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C501" s="2" t="s">
         <v>108</v>
@@ -8263,7 +8229,7 @@
         <v>16</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C502" s="4" t="s">
         <v>74</v>
@@ -8274,10 +8240,10 @@
         <v>16</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C503" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
@@ -8285,7 +8251,7 @@
         <v>16</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C504" s="4" t="s">
         <v>25</v>
@@ -8296,7 +8262,7 @@
         <v>16</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C505" s="4" t="s">
         <v>106</v>
@@ -8307,7 +8273,7 @@
         <v>17</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>70</v>
@@ -8318,7 +8284,7 @@
         <v>17</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C507" s="4" t="s">
         <v>83</v>
@@ -8329,7 +8295,7 @@
         <v>17</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>70</v>
@@ -8340,7 +8306,7 @@
         <v>17</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C509" s="4" t="s">
         <v>83</v>
@@ -8351,10 +8317,10 @@
         <v>17</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
@@ -8362,7 +8328,7 @@
         <v>17</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C511" s="4" t="s">
         <v>74</v>
@@ -8373,10 +8339,10 @@
         <v>17</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.3">
@@ -8384,10 +8350,10 @@
         <v>17</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C513" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
@@ -8395,10 +8361,10 @@
         <v>17</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.3">
@@ -8406,10 +8372,10 @@
         <v>17</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.3">
@@ -8417,10 +8383,10 @@
         <v>17</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.3">
@@ -8428,7 +8394,7 @@
         <v>17</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C517" s="4" t="s">
         <v>25</v>
@@ -8439,10 +8405,10 @@
         <v>17</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.3">
@@ -8450,7 +8416,7 @@
         <v>17</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C519" s="4" t="s">
         <v>74</v>
@@ -8461,10 +8427,10 @@
         <v>17</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.3">
@@ -8472,10 +8438,10 @@
         <v>17</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.3">
@@ -8483,10 +8449,10 @@
         <v>17</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.3">
@@ -8494,10 +8460,10 @@
         <v>17</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.3">
@@ -8505,7 +8471,7 @@
         <v>17</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C524" s="4" t="s">
         <v>83</v>
@@ -8516,10 +8482,10 @@
         <v>17</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C525" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.3">
@@ -8527,10 +8493,10 @@
         <v>17</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.3">
@@ -8538,10 +8504,10 @@
         <v>17</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.3">
@@ -8549,10 +8515,10 @@
         <v>17</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C528" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.3">
@@ -8560,7 +8526,7 @@
         <v>17</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C529" s="4" t="s">
         <v>83</v>
@@ -8571,10 +8537,10 @@
         <v>17</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
@@ -8582,7 +8548,7 @@
         <v>17</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C531" s="4" t="s">
         <v>64</v>
@@ -8593,10 +8559,10 @@
         <v>17</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.3">
@@ -8604,10 +8570,10 @@
         <v>18</v>
       </c>
       <c r="B533" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.3">
@@ -8615,7 +8581,7 @@
         <v>18</v>
       </c>
       <c r="B534" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C534" s="2" t="s">
         <v>108</v>
@@ -8626,10 +8592,10 @@
         <v>18</v>
       </c>
       <c r="B535" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.3">
@@ -8637,10 +8603,10 @@
         <v>18</v>
       </c>
       <c r="B536" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.3">
@@ -8648,10 +8614,10 @@
         <v>18</v>
       </c>
       <c r="B537" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.3">
@@ -8659,10 +8625,10 @@
         <v>18</v>
       </c>
       <c r="B538" s="6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
@@ -8670,10 +8636,10 @@
         <v>18</v>
       </c>
       <c r="B539" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
@@ -8681,10 +8647,10 @@
         <v>18</v>
       </c>
       <c r="B540" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C540" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
@@ -8692,7 +8658,7 @@
         <v>18</v>
       </c>
       <c r="B541" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C541" s="4" t="s">
         <v>25</v>
@@ -8703,10 +8669,10 @@
         <v>18</v>
       </c>
       <c r="B542" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.3">
@@ -8714,7 +8680,7 @@
         <v>18</v>
       </c>
       <c r="B543" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C543" s="4" t="s">
         <v>83</v>
@@ -8725,10 +8691,10 @@
         <v>18</v>
       </c>
       <c r="B544" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.3">
@@ -8736,7 +8702,7 @@
         <v>18</v>
       </c>
       <c r="B545" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C545" s="4" t="s">
         <v>83</v>
@@ -8747,7 +8713,7 @@
         <v>18</v>
       </c>
       <c r="B546" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C546" s="4" t="s">
         <v>83</v>
@@ -8758,10 +8724,10 @@
         <v>18</v>
       </c>
       <c r="B547" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.3">
@@ -8769,7 +8735,7 @@
         <v>18</v>
       </c>
       <c r="B548" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C548" s="4" t="s">
         <v>54</v>
@@ -8780,10 +8746,10 @@
         <v>18</v>
       </c>
       <c r="B549" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.3">
@@ -8791,7 +8757,7 @@
         <v>18</v>
       </c>
       <c r="B550" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C550" s="4" t="s">
         <v>83</v>
@@ -8802,10 +8768,10 @@
         <v>18</v>
       </c>
       <c r="B551" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C551" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.3">
@@ -8813,7 +8779,7 @@
         <v>18</v>
       </c>
       <c r="B552" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C552" s="4" t="s">
         <v>25</v>
@@ -8824,10 +8790,10 @@
         <v>18</v>
       </c>
       <c r="B553" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.3">
@@ -8835,7 +8801,7 @@
         <v>18</v>
       </c>
       <c r="B554" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C554" s="4" t="s">
         <v>96</v>
@@ -8846,7 +8812,7 @@
         <v>18</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C555" s="4" t="s">
         <v>99</v>
@@ -8857,10 +8823,10 @@
         <v>18</v>
       </c>
       <c r="B556" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C556" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.3">
@@ -8868,7 +8834,7 @@
         <v>18</v>
       </c>
       <c r="B557" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C557" s="4" t="s">
         <v>83</v>
@@ -8879,21 +8845,19 @@
         <v>18</v>
       </c>
       <c r="B558" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="C558" s="2" t="s">
-        <v>430</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="C558" s="2"/>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.3">
@@ -8901,10 +8865,10 @@
         <v>19</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C560" s="4" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.3">
@@ -8912,7 +8876,7 @@
         <v>19</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C561" s="4" t="s">
         <v>74</v>
@@ -8923,10 +8887,10 @@
         <v>19</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C562" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.3">
@@ -8934,10 +8898,10 @@
         <v>19</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.3">
@@ -8945,10 +8909,10 @@
         <v>19</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C564" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.3">
@@ -8956,10 +8920,10 @@
         <v>19</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C565" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.3">
@@ -8967,7 +8931,7 @@
         <v>19</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C566" s="4" t="s">
         <v>74</v>
@@ -8978,7 +8942,7 @@
         <v>19</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C567" s="4" t="s">
         <v>74</v>
@@ -8989,10 +8953,10 @@
         <v>19</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C568" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.3">
@@ -9000,7 +8964,7 @@
         <v>19</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C569" s="4" t="s">
         <v>74</v>
@@ -9011,10 +8975,10 @@
         <v>19</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C570" s="4" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.3">
@@ -9022,10 +8986,10 @@
         <v>19</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.3">
@@ -9033,10 +8997,10 @@
         <v>19</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.3">
@@ -9044,10 +9008,10 @@
         <v>19</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C573" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.3">
@@ -9055,10 +9019,10 @@
         <v>19</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C574" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.3">
@@ -9066,7 +9030,7 @@
         <v>19</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C575" s="4" t="s">
         <v>74</v>
@@ -9077,7 +9041,7 @@
         <v>19</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C576" s="4" t="s">
         <v>99</v>
@@ -9088,10 +9052,10 @@
         <v>19</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C577" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.3">
@@ -9099,7 +9063,7 @@
         <v>19</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C578" s="4" t="s">
         <v>74</v>
@@ -9110,7 +9074,7 @@
         <v>19</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C579" s="4" t="s">
         <v>74</v>
@@ -9121,10 +9085,10 @@
         <v>19</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C580" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.3">
@@ -9132,10 +9096,10 @@
         <v>19</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C581" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.3">
@@ -9143,7 +9107,7 @@
         <v>19</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C582" s="4" t="s">
         <v>74</v>
@@ -9174,7 +9138,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -9189,17 +9153,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
@@ -9219,17 +9183,17 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
@@ -9239,27 +9203,27 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -9269,17 +9233,17 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -9289,7 +9253,7 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
@@ -9299,7 +9263,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
@@ -9314,7 +9278,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -9334,17 +9298,17 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
